--- a/results/#Variable_Explanations_and Financials-11-27.xlsx
+++ b/results/#Variable_Explanations_and Financials-11-27.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katharinarings/Desktop/Analytics Edge/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8437A4-C900-F845-AFFD-171D4EB7CC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D92858E-FE4D-7F40-BC54-7A4D01C8152F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16380" yWindow="740" windowWidth="12620" windowHeight="17140" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8580" yWindow="740" windowWidth="20420" windowHeight="17140" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable Explanations" sheetId="1" r:id="rId1"/>
     <sheet name="Example observations" sheetId="3" r:id="rId2"/>
     <sheet name="Revenue Costs Example Paper" sheetId="4" r:id="rId3"/>
-    <sheet name="Dashboard" sheetId="5" r:id="rId4"/>
-    <sheet name="Georgia" sheetId="6" r:id="rId5"/>
+    <sheet name="Georgia" sheetId="6" r:id="rId4"/>
+    <sheet name="Dashboard" sheetId="5" r:id="rId5"/>
     <sheet name="example observation" sheetId="2" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="357">
   <si>
     <t>Variable</t>
   </si>
@@ -1099,15 +1099,6 @@
     <t>Revenue/semester</t>
   </si>
   <si>
-    <t>churn/year</t>
-  </si>
-  <si>
-    <t>cost of churn/year 1</t>
-  </si>
-  <si>
-    <t>Assumption (10% per year in years 1-5, 4% in last year)</t>
-  </si>
-  <si>
     <t>Recommendations</t>
   </si>
   <si>
@@ -1162,9 +1153,6 @@
     <t>Basic cost of education</t>
   </si>
   <si>
-    <t>Profit</t>
-  </si>
-  <si>
     <t>Profit/student (without intervention)</t>
   </si>
   <si>
@@ -1247,6 +1235,75 @@
   </si>
   <si>
     <t>DELTA without intervention vs with best model</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>https://www.thirdway.org/report/ripple-effect-the-cost-of-the-college-dropout-rate</t>
+  </si>
+  <si>
+    <t>Additional salary/grad life</t>
+  </si>
+  <si>
+    <t>Lifetime value of tax increase/grad</t>
+  </si>
+  <si>
+    <t>compared to students with "some college"</t>
+  </si>
+  <si>
+    <t>Trostel, Philip. Lumina Foundation. “It’s Not Just The Money.” 14 Oct. 2015. https://www.luminafoundation.org/resources/its-not-just-the-money. Accessed 30 Oct. 2018.</t>
+  </si>
+  <si>
+    <t>University/additional student/year</t>
+  </si>
+  <si>
+    <t>University/additional student/4 years</t>
+  </si>
+  <si>
+    <t>Average revenue/student</t>
+  </si>
+  <si>
+    <t>Increase in number of students graduating</t>
+  </si>
+  <si>
+    <t>Number of students graduating</t>
+  </si>
+  <si>
+    <t>Additional number of students graduating</t>
+  </si>
+  <si>
+    <t>Profit (contribution margin)</t>
+  </si>
+  <si>
+    <t>Contribution margin</t>
+  </si>
+  <si>
+    <t>assumption based on paper</t>
+  </si>
+  <si>
+    <t>Contribution/Student</t>
+  </si>
+  <si>
+    <t>cost for program</t>
+  </si>
+  <si>
+    <t>assumption based on calculations</t>
+  </si>
+  <si>
+    <t>Additional contribution/student</t>
+  </si>
+  <si>
+    <t>Other information</t>
+  </si>
+  <si>
+    <t>New number of students graduating</t>
+  </si>
+  <si>
+    <t>Total additional contribution p.a.</t>
+  </si>
+  <si>
+    <t>Ideal Model assumptions</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1317,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1331,6 +1388,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1385,12 +1450,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1440,28 +1507,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1476,13 +1528,56 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Link" xfId="4" builtinId="8"/>
+    <cellStyle name="Prozent" xfId="3" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="2" builtinId="4"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -3684,10 +3779,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816B34B9-5439-CB49-BB41-FEDF01881B38}">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3698,18 +3793,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="B3" s="29"/>
+      <c r="A3" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" s="35"/>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B4">
         <v>127</v>
@@ -3717,19 +3812,19 @@
     </row>
     <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B5">
         <v>109</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="38">
         <f>(B5-B6)/B6</f>
         <v>0.34567901234567899</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B6">
         <v>81</v>
@@ -3737,7 +3832,7 @@
     </row>
     <row r="7" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B7">
         <f>B5-B6</f>
@@ -3745,20 +3840,20 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="B8" s="27"/>
+      <c r="A8" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" s="34"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="B9" s="32"/>
+      <c r="A9" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="26"/>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B10" s="9">
         <v>4998</v>
@@ -3766,7 +3861,7 @@
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B11" s="9">
         <v>6191</v>
@@ -3774,7 +3869,7 @@
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B12" s="14">
         <f>B10+B11</f>
@@ -3783,25 +3878,25 @@
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B13" s="14">
         <f>B5*B12</f>
         <v>1219601</v>
       </c>
       <c r="C13" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="B14" s="32"/>
+      <c r="A14" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="B14" s="26"/>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B15" s="14">
         <v>6672</v>
@@ -3809,7 +3904,7 @@
     </row>
     <row r="16" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B16" s="14">
         <v>10797</v>
@@ -3817,7 +3912,7 @@
     </row>
     <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B17" s="18">
         <f>B15</f>
@@ -3826,58 +3921,62 @@
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B18" s="14">
         <f>B17*B5</f>
         <v>727248</v>
       </c>
       <c r="C18" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="B19" s="32"/>
+      <c r="A19" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="B19" s="26"/>
     </row>
     <row r="20" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B20" s="14">
         <f>B12-B17</f>
         <v>4517</v>
       </c>
+      <c r="C20" s="38">
+        <f>B20/B12</f>
+        <v>0.40370006256144425</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B21" s="14">
         <f>B20*B5</f>
         <v>492353</v>
       </c>
       <c r="C21" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="B22" s="33"/>
+      <c r="A22" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="B22" s="28"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="B23" s="28"/>
+      <c r="A23" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="B23" s="27"/>
     </row>
     <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B24" s="15">
         <f>B12</f>
@@ -3886,7 +3985,7 @@
     </row>
     <row r="25" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B25" s="11">
         <f>B24*B7</f>
@@ -3894,14 +3993,14 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="B26" s="28"/>
+      <c r="A26" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="B26" s="27"/>
     </row>
     <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B27" s="14">
         <v>2771</v>
@@ -3909,7 +4008,7 @@
     </row>
     <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B28" s="11">
         <f>B5*B27</f>
@@ -3917,14 +4016,14 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="B29" s="28"/>
+      <c r="A29" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="B29" s="27"/>
     </row>
     <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B30" s="19">
         <f>B20-B27</f>
@@ -3933,7 +4032,7 @@
     </row>
     <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B31" s="19">
         <f>B5*B12-B5*B17-B5*B27</f>
@@ -3942,7 +4041,7 @@
     </row>
     <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B32" s="19">
         <f>B25-B28</f>
@@ -3950,20 +4049,20 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="B33" s="30"/>
+      <c r="A33" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="B33" s="36"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="B34" s="30"/>
+      <c r="A34" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="B34" s="36"/>
     </row>
     <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B35" s="15">
         <f>B12</f>
@@ -3972,7 +4071,7 @@
     </row>
     <row r="36" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B36" s="11">
         <f>B7*B12</f>
@@ -3980,14 +4079,14 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="34" t="s">
-        <v>327</v>
-      </c>
-      <c r="B37" s="34"/>
+      <c r="A37" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="B37" s="29"/>
     </row>
     <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B38" s="14">
         <v>2771</v>
@@ -3995,7 +4094,7 @@
     </row>
     <row r="39" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B39" s="11">
         <f>B38*B7</f>
@@ -4003,14 +4102,14 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="B40" s="34"/>
+      <c r="A40" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="B40" s="29"/>
     </row>
     <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B41" s="19">
         <f>B20-B38</f>
@@ -4019,7 +4118,7 @@
     </row>
     <row r="42" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B42" s="19">
         <f>B21+B7*B20-B7*B38</f>
@@ -4028,7 +4127,7 @@
     </row>
     <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B43" s="19">
         <f>B36-B39</f>
@@ -4036,20 +4135,20 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="B44" s="35"/>
+      <c r="A44" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="B44" s="30"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="36" t="s">
-        <v>299</v>
-      </c>
-      <c r="B45" s="36"/>
+      <c r="A45" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="B45" s="31"/>
     </row>
     <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B46" s="15">
         <f>B24</f>
@@ -4058,7 +4157,7 @@
     </row>
     <row r="47" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B47" s="11">
         <f>B7*B12</f>
@@ -4066,14 +4165,14 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="B48" s="25"/>
+      <c r="A48" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="B48" s="32"/>
     </row>
     <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B49" s="19">
         <v>1542</v>
@@ -4081,7 +4180,7 @@
     </row>
     <row r="50" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B50" s="21">
         <f>B49*B7</f>
@@ -4089,23 +4188,27 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="26" t="s">
-        <v>328</v>
-      </c>
-      <c r="B51" s="26"/>
+      <c r="A51" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="B51" s="33"/>
     </row>
     <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B52" s="19">
         <f>B20-B49</f>
         <v>2975</v>
       </c>
+      <c r="C52" s="38">
+        <f>B52/B20</f>
+        <v>0.65862297985388529</v>
+      </c>
     </row>
     <row r="53" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B53" s="19">
         <f>B21+B52*B7</f>
@@ -4114,7 +4217,7 @@
     </row>
     <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B54" s="19">
         <f>B47-B50</f>
@@ -4123,7 +4226,7 @@
     </row>
     <row r="55" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B55" s="22">
         <f>B53-B21</f>
@@ -4137,23 +4240,23 @@
       <c r="B57" s="16"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
+      <c r="A59" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C60" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B61">
         <v>1422</v>
@@ -4164,7 +4267,7 @@
     </row>
     <row r="62" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B62">
         <v>120</v>
@@ -4175,7 +4278,7 @@
     </row>
     <row r="63" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B63" s="2">
         <f>SUM(B61:B62)</f>
@@ -4188,7 +4291,7 @@
     </row>
     <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B65">
         <v>238</v>
@@ -4203,8 +4306,68 @@
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67"/>
     </row>
+    <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="B69" s="11">
+        <f>B52</f>
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A70" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="B70" s="39">
+        <f>B69*4</f>
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B71" s="19">
+        <v>900000</v>
+      </c>
+      <c r="C71" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B72" s="19">
+        <v>142231</v>
+      </c>
+      <c r="C72" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="37" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>335</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A33:B33"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A14:B14"/>
@@ -4217,15 +4380,49 @@
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
   </mergeCells>
   <conditionalFormatting sqref="B30:B32">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="&quot;&lt;0&quot;"/>
+        <cfvo type="num" val="&quot;&gt;0&quot;"/>
+        <color rgb="FFC00000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41:B43">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="&quot;&lt;0&quot;"/>
+        <cfvo type="num" val="&quot;&gt;0&quot;"/>
+        <color rgb="FFC00000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:B54">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="num" val="&quot;&lt;0&quot;"/>
+        <cfvo type="num" val="&quot;&gt;0&quot;"/>
+        <color rgb="FFC00000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B72">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4237,41 +4434,260 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:B43">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="num" val="&quot;&lt;0&quot;"/>
-        <cfvo type="num" val="&quot;&gt;0&quot;"/>
-        <color rgb="FFC00000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52:B54">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="num" val="&quot;&lt;0&quot;"/>
-        <cfvo type="num" val="&quot;&gt;0&quot;"/>
-        <color rgb="FFC00000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A73" r:id="rId1" display="https://www.luminafoundation.org/resources/its-not-just-the-money" xr:uid="{BE9381E0-AC87-8643-BB0C-1D27504B17DF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C368ABCA-8C69-E242-83DE-8ECEE4F740D9}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" s="42"/>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" s="10">
+        <v>25000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="9">
+        <v>5343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" s="9">
+        <v>14518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" s="14">
+        <f>B4*B5*B6+B4*(1-B5)*B7</f>
+        <v>147337500.00000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="B9" s="14">
+        <f>B8/B4</f>
+        <v>5893.5000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="44" t="s">
+        <v>347</v>
+      </c>
+      <c r="B10" s="46">
+        <f>'Revenue Costs Example Paper'!C20</f>
+        <v>0.40370006256144425</v>
+      </c>
+      <c r="C10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="B11" s="43">
+        <f>B9*B10</f>
+        <v>2379.206318705872</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="B12" s="45">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="B13" s="47">
+        <f>B4*B12</f>
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="42" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14" s="42"/>
+    </row>
+    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="B15" s="46">
+        <f>'Revenue Costs Example Paper'!C5</f>
+        <v>0.34567901234567899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="B16" s="47">
+        <f>B13*(1+B15)</f>
+        <v>18166.666666666668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="B17" s="47">
+        <f>B16-B13</f>
+        <v>4666.6666666666679</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="B18">
+        <f>'Revenue Costs Example Paper'!B49</f>
+        <v>1542</v>
+      </c>
+      <c r="C18" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B19" s="48">
+        <f>B11-B18</f>
+        <v>837.20631870587204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="B20" s="43">
+        <f>B17*B19</f>
+        <v>3906962.8206274039</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="44"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+    </row>
+    <row r="24" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="49" t="s">
+        <v>353</v>
+      </c>
+      <c r="B24" s="49"/>
+    </row>
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:B14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD5D7DD-B745-4A4A-94EE-27530790F936}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+    <sheetView zoomScale="50" workbookViewId="0">
       <selection activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>
@@ -4279,164 +4695,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C368ABCA-8C69-E242-83DE-8ECEE4F740D9}">
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="12"/>
-    </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="B4" s="10">
-        <v>25000</v>
-      </c>
-      <c r="C4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="B5" s="8">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="B6" s="9">
-        <v>5343</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="B7" s="9">
-        <v>14518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="B8" s="9">
-        <f>B4*B5*B6+B4*(1-B5)*B7</f>
-        <v>147337500.00000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="B9" s="8">
-        <v>0.54</v>
-      </c>
-      <c r="C9">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="B10" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="B11" s="11">
-        <f>B10*B8</f>
-        <v>14733750.000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-    </row>
-    <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="B15" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="B16" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="C16" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
